--- a/Week6/dictionary/gr200_21.xlsx
+++ b/Week6/dictionary/gr200_21.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Shares\IPEDS\DCT\2021\Winter\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidtorres/Code/NU/TIM7020/Week6/dictionary/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6307F6D3-D3E7-7A4A-AC84-2FE0D0A1D5F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13920" yWindow="360" windowWidth="13800" windowHeight="10830"/>
+    <workbookView xWindow="13920" yWindow="500" windowWidth="13800" windowHeight="10840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="7" r:id="rId1"/>
@@ -547,9 +548,6 @@
 </t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>Revised bachelor's degree-seeking cohort, (cohort year 2013)</t>
   </si>
   <si>
@@ -560,16 +558,19 @@
   </si>
   <si>
     <t>Revised degree/certificate-seeking cohort (cohort year 2017) in two-year and less-than-two year institutions</t>
+  </si>
+  <si>
+    <t>PK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -627,7 +628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -647,10 +648,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -664,9 +662,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -687,7 +682,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -703,9 +698,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -743,9 +738,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -780,7 +775,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -815,7 +810,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -988,47 +983,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="10" width="9.140625" style="4"/>
+    <col min="1" max="1" width="25.796875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="14.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="9.19921875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" ht="27" customHeight="1">
+      <c r="A1" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="21"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1044,7 +1039,7 @@
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1056,23 +1051,23 @@
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:10" ht="81.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="81.75" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -1084,23 +1079,23 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="68.25" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>153</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -1112,21 +1107,21 @@
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1138,69 +1133,69 @@
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
     </row>
-    <row r="11" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="76.5" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>154</v>
       </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1220,26 +1215,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G138"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="11" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1257,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1279,13 +1274,13 @@
         <v>19</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
         <v>81281</v>
       </c>
@@ -1305,10 +1300,10 @@
         <v>58</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
         <v>81286</v>
       </c>
@@ -1331,7 +1326,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <v>81291</v>
       </c>
@@ -1354,7 +1349,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <v>81296</v>
       </c>
@@ -1377,7 +1372,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <v>81301</v>
       </c>
@@ -1400,7 +1395,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <v>81306</v>
       </c>
@@ -1423,7 +1418,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <v>81311</v>
       </c>
@@ -1446,7 +1441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <v>81316</v>
       </c>
@@ -1469,7 +1464,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" s="1">
         <v>81321</v>
       </c>
@@ -1492,7 +1487,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" s="1">
         <v>81326</v>
       </c>
@@ -1515,7 +1510,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" s="1">
         <v>81338</v>
       </c>
@@ -1538,7 +1533,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" s="1">
         <v>81331</v>
       </c>
@@ -1561,7 +1556,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" s="1">
         <v>81336</v>
       </c>
@@ -1584,7 +1579,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" s="1">
         <v>81341</v>
       </c>
@@ -1604,10 +1599,10 @@
         <v>95</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>81346</v>
       </c>
@@ -1630,7 +1625,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>81351</v>
       </c>
@@ -1653,7 +1648,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>81356</v>
       </c>
@@ -1676,7 +1671,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>81361</v>
       </c>
@@ -1699,7 +1694,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>81366</v>
       </c>
@@ -1722,7 +1717,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>81371</v>
       </c>
@@ -1745,7 +1740,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>81376</v>
       </c>
@@ -1768,7 +1763,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>81381</v>
       </c>
@@ -1791,7 +1786,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>81386</v>
       </c>
@@ -1814,7 +1809,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>81398</v>
       </c>
@@ -1837,7 +1832,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>81391</v>
       </c>
@@ -1860,7 +1855,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>81396</v>
       </c>
@@ -1883,7 +1878,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1892,7 +1887,7 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1901,7 +1896,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1910,7 +1905,7 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1919,7 +1914,7 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1928,7 +1923,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -1937,7 +1932,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" s="1"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
@@ -1946,7 +1941,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" s="1"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
@@ -1955,7 +1950,7 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" s="1"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
@@ -1964,7 +1959,7 @@
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -1973,7 +1968,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -1982,7 +1977,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -1991,7 +1986,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2000,7 +1995,7 @@
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2008,7 +2003,7 @@
       <c r="E42" s="1"/>
       <c r="G42" s="1"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2017,7 +2012,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" s="1"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2026,7 +2021,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" s="1"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
@@ -2035,7 +2030,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" s="1"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
@@ -2043,7 +2038,7 @@
       <c r="E46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" s="1"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
@@ -2052,7 +2047,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" s="1"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
@@ -2060,7 +2055,7 @@
       <c r="E48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" s="1"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
@@ -2069,7 +2064,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
@@ -2078,7 +2073,7 @@
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
@@ -2087,7 +2082,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -2095,7 +2090,7 @@
       <c r="E52" s="1"/>
       <c r="G52" s="1"/>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" s="1"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
@@ -2104,7 +2099,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" s="1"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
@@ -2112,7 +2107,7 @@
       <c r="E54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" s="1"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
@@ -2121,7 +2116,7 @@
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" s="1"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -2130,7 +2125,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" s="1"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
@@ -2139,7 +2134,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" s="1"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
@@ -2147,7 +2142,7 @@
       <c r="E58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
@@ -2156,7 +2151,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
@@ -2164,7 +2159,7 @@
       <c r="E60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
@@ -2173,7 +2168,7 @@
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
@@ -2182,7 +2177,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
@@ -2191,7 +2186,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -2200,7 +2195,7 @@
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -2209,7 +2204,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -2218,7 +2213,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -2227,7 +2222,7 @@
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -2236,7 +2231,7 @@
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -2245,7 +2240,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -2254,7 +2249,7 @@
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -2263,7 +2258,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -2272,7 +2267,7 @@
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -2281,7 +2276,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -2290,7 +2285,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -2299,7 +2294,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -2308,7 +2303,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -2317,7 +2312,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -2326,7 +2321,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -2335,7 +2330,7 @@
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -2344,7 +2339,7 @@
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -2353,7 +2348,7 @@
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -2362,7 +2357,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -2371,7 +2366,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -2380,7 +2375,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -2389,7 +2384,7 @@
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -2398,7 +2393,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -2407,7 +2402,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -2416,7 +2411,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -2425,7 +2420,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -2434,7 +2429,7 @@
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -2443,7 +2438,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -2452,7 +2447,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -2461,7 +2456,7 @@
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -2470,7 +2465,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -2479,7 +2474,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -2488,7 +2483,7 @@
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -2497,7 +2492,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2506,7 +2501,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -2515,7 +2510,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2524,7 +2519,7 @@
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
@@ -2533,16 +2528,16 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
-      <c r="F102" s="17"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
@@ -2550,7 +2545,7 @@
       <c r="E103" s="1"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2558,7 +2553,7 @@
       <c r="E104" s="1"/>
       <c r="G104" s="1"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
@@ -2567,7 +2562,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2576,7 +2571,7 @@
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -2585,7 +2580,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
@@ -2594,7 +2589,7 @@
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2603,7 +2598,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
@@ -2612,7 +2607,7 @@
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2621,7 +2616,7 @@
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
@@ -2630,7 +2625,7 @@
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
@@ -2638,16 +2633,16 @@
       <c r="E113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
-      <c r="F114" s="17"/>
+      <c r="F114" s="16"/>
       <c r="G114" s="1"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
@@ -2655,7 +2650,7 @@
       <c r="E115" s="1"/>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
@@ -2663,7 +2658,7 @@
       <c r="E116" s="1"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
@@ -2671,7 +2666,7 @@
       <c r="E117" s="1"/>
       <c r="G117" s="1"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
@@ -2679,16 +2674,16 @@
       <c r="E118" s="1"/>
       <c r="G118" s="1"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
-      <c r="F119" s="17"/>
+      <c r="F119" s="16"/>
       <c r="G119" s="1"/>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
@@ -2696,7 +2691,7 @@
       <c r="E120" s="1"/>
       <c r="G120" s="1"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
@@ -2704,7 +2699,7 @@
       <c r="E121" s="1"/>
       <c r="G121" s="1"/>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
@@ -2712,7 +2707,7 @@
       <c r="E122" s="1"/>
       <c r="G122" s="1"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" s="1"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
@@ -2720,7 +2715,7 @@
       <c r="E123" s="1"/>
       <c r="G123" s="1"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" s="1"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
@@ -2728,7 +2723,7 @@
       <c r="E124" s="1"/>
       <c r="G124" s="1"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" s="1"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
@@ -2736,7 +2731,7 @@
       <c r="E125" s="1"/>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
@@ -2744,16 +2739,16 @@
       <c r="E126" s="1"/>
       <c r="G126" s="1"/>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
-      <c r="F127" s="17"/>
+      <c r="F127" s="16"/>
       <c r="G127" s="1"/>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
@@ -2762,7 +2757,7 @@
       <c r="F128" s="1"/>
       <c r="G128" s="1"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
@@ -2771,7 +2766,7 @@
       <c r="F129" s="1"/>
       <c r="G129" s="1"/>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
@@ -2780,7 +2775,7 @@
       <c r="F130" s="1"/>
       <c r="G130" s="1"/>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
@@ -2789,7 +2784,7 @@
       <c r="F131" s="1"/>
       <c r="G131" s="1"/>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" s="1"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
@@ -2798,7 +2793,7 @@
       <c r="F132" s="1"/>
       <c r="G132" s="1"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
@@ -2806,16 +2801,16 @@
       <c r="E133" s="1"/>
       <c r="G133" s="1"/>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
-      <c r="F134" s="17"/>
+      <c r="F134" s="16"/>
       <c r="G134" s="1"/>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" s="1"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
@@ -2824,7 +2819,7 @@
       <c r="F135" s="1"/>
       <c r="G135" s="1"/>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" s="1"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
@@ -2833,7 +2828,7 @@
       <c r="F136" s="1"/>
       <c r="G136" s="1"/>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
@@ -2842,7 +2837,7 @@
       <c r="F137" s="1"/>
       <c r="G137" s="1"/>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
@@ -2858,7 +2853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2866,813 +2861,621 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="11"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="15"/>
-    <col min="2" max="2" width="11.140625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="144.85546875" style="15" customWidth="1"/>
-    <col min="4" max="257" width="8.7109375" style="16"/>
-    <col min="258" max="258" width="11.140625" style="16" customWidth="1"/>
-    <col min="259" max="259" width="144.85546875" style="16" customWidth="1"/>
-    <col min="260" max="513" width="8.7109375" style="16"/>
-    <col min="514" max="514" width="11.140625" style="16" customWidth="1"/>
-    <col min="515" max="515" width="144.85546875" style="16" customWidth="1"/>
-    <col min="516" max="769" width="8.7109375" style="16"/>
-    <col min="770" max="770" width="11.140625" style="16" customWidth="1"/>
-    <col min="771" max="771" width="144.85546875" style="16" customWidth="1"/>
-    <col min="772" max="1025" width="8.7109375" style="16"/>
-    <col min="1026" max="1026" width="11.140625" style="16" customWidth="1"/>
-    <col min="1027" max="1027" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1028" max="1281" width="8.7109375" style="16"/>
-    <col min="1282" max="1282" width="11.140625" style="16" customWidth="1"/>
-    <col min="1283" max="1283" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1284" max="1537" width="8.7109375" style="16"/>
-    <col min="1538" max="1538" width="11.140625" style="16" customWidth="1"/>
-    <col min="1539" max="1539" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1540" max="1793" width="8.7109375" style="16"/>
-    <col min="1794" max="1794" width="11.140625" style="16" customWidth="1"/>
-    <col min="1795" max="1795" width="144.85546875" style="16" customWidth="1"/>
-    <col min="1796" max="2049" width="8.7109375" style="16"/>
-    <col min="2050" max="2050" width="11.140625" style="16" customWidth="1"/>
-    <col min="2051" max="2051" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2052" max="2305" width="8.7109375" style="16"/>
-    <col min="2306" max="2306" width="11.140625" style="16" customWidth="1"/>
-    <col min="2307" max="2307" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2308" max="2561" width="8.7109375" style="16"/>
-    <col min="2562" max="2562" width="11.140625" style="16" customWidth="1"/>
-    <col min="2563" max="2563" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2564" max="2817" width="8.7109375" style="16"/>
-    <col min="2818" max="2818" width="11.140625" style="16" customWidth="1"/>
-    <col min="2819" max="2819" width="144.85546875" style="16" customWidth="1"/>
-    <col min="2820" max="3073" width="8.7109375" style="16"/>
-    <col min="3074" max="3074" width="11.140625" style="16" customWidth="1"/>
-    <col min="3075" max="3075" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3076" max="3329" width="8.7109375" style="16"/>
-    <col min="3330" max="3330" width="11.140625" style="16" customWidth="1"/>
-    <col min="3331" max="3331" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3332" max="3585" width="8.7109375" style="16"/>
-    <col min="3586" max="3586" width="11.140625" style="16" customWidth="1"/>
-    <col min="3587" max="3587" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3588" max="3841" width="8.7109375" style="16"/>
-    <col min="3842" max="3842" width="11.140625" style="16" customWidth="1"/>
-    <col min="3843" max="3843" width="144.85546875" style="16" customWidth="1"/>
-    <col min="3844" max="4097" width="8.7109375" style="16"/>
-    <col min="4098" max="4098" width="11.140625" style="16" customWidth="1"/>
-    <col min="4099" max="4099" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4100" max="4353" width="8.7109375" style="16"/>
-    <col min="4354" max="4354" width="11.140625" style="16" customWidth="1"/>
-    <col min="4355" max="4355" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4356" max="4609" width="8.7109375" style="16"/>
-    <col min="4610" max="4610" width="11.140625" style="16" customWidth="1"/>
-    <col min="4611" max="4611" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4612" max="4865" width="8.7109375" style="16"/>
-    <col min="4866" max="4866" width="11.140625" style="16" customWidth="1"/>
-    <col min="4867" max="4867" width="144.85546875" style="16" customWidth="1"/>
-    <col min="4868" max="5121" width="8.7109375" style="16"/>
-    <col min="5122" max="5122" width="11.140625" style="16" customWidth="1"/>
-    <col min="5123" max="5123" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5124" max="5377" width="8.7109375" style="16"/>
-    <col min="5378" max="5378" width="11.140625" style="16" customWidth="1"/>
-    <col min="5379" max="5379" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5380" max="5633" width="8.7109375" style="16"/>
-    <col min="5634" max="5634" width="11.140625" style="16" customWidth="1"/>
-    <col min="5635" max="5635" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5636" max="5889" width="8.7109375" style="16"/>
-    <col min="5890" max="5890" width="11.140625" style="16" customWidth="1"/>
-    <col min="5891" max="5891" width="144.85546875" style="16" customWidth="1"/>
-    <col min="5892" max="6145" width="8.7109375" style="16"/>
-    <col min="6146" max="6146" width="11.140625" style="16" customWidth="1"/>
-    <col min="6147" max="6147" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6148" max="6401" width="8.7109375" style="16"/>
-    <col min="6402" max="6402" width="11.140625" style="16" customWidth="1"/>
-    <col min="6403" max="6403" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6404" max="6657" width="8.7109375" style="16"/>
-    <col min="6658" max="6658" width="11.140625" style="16" customWidth="1"/>
-    <col min="6659" max="6659" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6660" max="6913" width="8.7109375" style="16"/>
-    <col min="6914" max="6914" width="11.140625" style="16" customWidth="1"/>
-    <col min="6915" max="6915" width="144.85546875" style="16" customWidth="1"/>
-    <col min="6916" max="7169" width="8.7109375" style="16"/>
-    <col min="7170" max="7170" width="11.140625" style="16" customWidth="1"/>
-    <col min="7171" max="7171" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7172" max="7425" width="8.7109375" style="16"/>
-    <col min="7426" max="7426" width="11.140625" style="16" customWidth="1"/>
-    <col min="7427" max="7427" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7428" max="7681" width="8.7109375" style="16"/>
-    <col min="7682" max="7682" width="11.140625" style="16" customWidth="1"/>
-    <col min="7683" max="7683" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7684" max="7937" width="8.7109375" style="16"/>
-    <col min="7938" max="7938" width="11.140625" style="16" customWidth="1"/>
-    <col min="7939" max="7939" width="144.85546875" style="16" customWidth="1"/>
-    <col min="7940" max="8193" width="8.7109375" style="16"/>
-    <col min="8194" max="8194" width="11.140625" style="16" customWidth="1"/>
-    <col min="8195" max="8195" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8196" max="8449" width="8.7109375" style="16"/>
-    <col min="8450" max="8450" width="11.140625" style="16" customWidth="1"/>
-    <col min="8451" max="8451" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8452" max="8705" width="8.7109375" style="16"/>
-    <col min="8706" max="8706" width="11.140625" style="16" customWidth="1"/>
-    <col min="8707" max="8707" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8708" max="8961" width="8.7109375" style="16"/>
-    <col min="8962" max="8962" width="11.140625" style="16" customWidth="1"/>
-    <col min="8963" max="8963" width="144.85546875" style="16" customWidth="1"/>
-    <col min="8964" max="9217" width="8.7109375" style="16"/>
-    <col min="9218" max="9218" width="11.140625" style="16" customWidth="1"/>
-    <col min="9219" max="9219" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9220" max="9473" width="8.7109375" style="16"/>
-    <col min="9474" max="9474" width="11.140625" style="16" customWidth="1"/>
-    <col min="9475" max="9475" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9476" max="9729" width="8.7109375" style="16"/>
-    <col min="9730" max="9730" width="11.140625" style="16" customWidth="1"/>
-    <col min="9731" max="9731" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9732" max="9985" width="8.7109375" style="16"/>
-    <col min="9986" max="9986" width="11.140625" style="16" customWidth="1"/>
-    <col min="9987" max="9987" width="144.85546875" style="16" customWidth="1"/>
-    <col min="9988" max="10241" width="8.7109375" style="16"/>
-    <col min="10242" max="10242" width="11.140625" style="16" customWidth="1"/>
-    <col min="10243" max="10243" width="144.85546875" style="16" customWidth="1"/>
-    <col min="10244" max="10497" width="8.7109375" style="16"/>
-    <col min="10498" max="10498" width="11.140625" style="16" customWidth="1"/>
-    <col min="10499" max="10499" width="144.85546875" style="16" customWidth="1"/>
-    <col min="10500" max="10753" width="8.7109375" style="16"/>
-    <col min="10754" max="10754" width="11.140625" style="16" customWidth="1"/>
-    <col min="10755" max="10755" width="144.85546875" style="16" customWidth="1"/>
-    <col min="10756" max="11009" width="8.7109375" style="16"/>
-    <col min="11010" max="11010" width="11.140625" style="16" customWidth="1"/>
-    <col min="11011" max="11011" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11012" max="11265" width="8.7109375" style="16"/>
-    <col min="11266" max="11266" width="11.140625" style="16" customWidth="1"/>
-    <col min="11267" max="11267" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11268" max="11521" width="8.7109375" style="16"/>
-    <col min="11522" max="11522" width="11.140625" style="16" customWidth="1"/>
-    <col min="11523" max="11523" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11524" max="11777" width="8.7109375" style="16"/>
-    <col min="11778" max="11778" width="11.140625" style="16" customWidth="1"/>
-    <col min="11779" max="11779" width="144.85546875" style="16" customWidth="1"/>
-    <col min="11780" max="12033" width="8.7109375" style="16"/>
-    <col min="12034" max="12034" width="11.140625" style="16" customWidth="1"/>
-    <col min="12035" max="12035" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12036" max="12289" width="8.7109375" style="16"/>
-    <col min="12290" max="12290" width="11.140625" style="16" customWidth="1"/>
-    <col min="12291" max="12291" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12292" max="12545" width="8.7109375" style="16"/>
-    <col min="12546" max="12546" width="11.140625" style="16" customWidth="1"/>
-    <col min="12547" max="12547" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12548" max="12801" width="8.7109375" style="16"/>
-    <col min="12802" max="12802" width="11.140625" style="16" customWidth="1"/>
-    <col min="12803" max="12803" width="144.85546875" style="16" customWidth="1"/>
-    <col min="12804" max="13057" width="8.7109375" style="16"/>
-    <col min="13058" max="13058" width="11.140625" style="16" customWidth="1"/>
-    <col min="13059" max="13059" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13060" max="13313" width="8.7109375" style="16"/>
-    <col min="13314" max="13314" width="11.140625" style="16" customWidth="1"/>
-    <col min="13315" max="13315" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13316" max="13569" width="8.7109375" style="16"/>
-    <col min="13570" max="13570" width="11.140625" style="16" customWidth="1"/>
-    <col min="13571" max="13571" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13572" max="13825" width="8.7109375" style="16"/>
-    <col min="13826" max="13826" width="11.140625" style="16" customWidth="1"/>
-    <col min="13827" max="13827" width="144.85546875" style="16" customWidth="1"/>
-    <col min="13828" max="14081" width="8.7109375" style="16"/>
-    <col min="14082" max="14082" width="11.140625" style="16" customWidth="1"/>
-    <col min="14083" max="14083" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14084" max="14337" width="8.7109375" style="16"/>
-    <col min="14338" max="14338" width="11.140625" style="16" customWidth="1"/>
-    <col min="14339" max="14339" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14340" max="14593" width="8.7109375" style="16"/>
-    <col min="14594" max="14594" width="11.140625" style="16" customWidth="1"/>
-    <col min="14595" max="14595" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14596" max="14849" width="8.7109375" style="16"/>
-    <col min="14850" max="14850" width="11.140625" style="16" customWidth="1"/>
-    <col min="14851" max="14851" width="144.85546875" style="16" customWidth="1"/>
-    <col min="14852" max="15105" width="8.7109375" style="16"/>
-    <col min="15106" max="15106" width="11.140625" style="16" customWidth="1"/>
-    <col min="15107" max="15107" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15108" max="15361" width="8.7109375" style="16"/>
-    <col min="15362" max="15362" width="11.140625" style="16" customWidth="1"/>
-    <col min="15363" max="15363" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15364" max="15617" width="8.7109375" style="16"/>
-    <col min="15618" max="15618" width="11.140625" style="16" customWidth="1"/>
-    <col min="15619" max="15619" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15620" max="15873" width="8.7109375" style="16"/>
-    <col min="15874" max="15874" width="11.140625" style="16" customWidth="1"/>
-    <col min="15875" max="15875" width="144.85546875" style="16" customWidth="1"/>
-    <col min="15876" max="16129" width="8.7109375" style="16"/>
-    <col min="16130" max="16130" width="11.140625" style="16" customWidth="1"/>
-    <col min="16131" max="16131" width="144.85546875" style="16" customWidth="1"/>
-    <col min="16132" max="16384" width="8.7109375" style="16"/>
+    <col min="1" max="1" width="8.796875" style="14"/>
+    <col min="2" max="2" width="11.19921875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="144.796875" style="14" customWidth="1"/>
+    <col min="4" max="257" width="8.796875" style="15"/>
+    <col min="258" max="258" width="11.19921875" style="15" customWidth="1"/>
+    <col min="259" max="259" width="144.796875" style="15" customWidth="1"/>
+    <col min="260" max="513" width="8.796875" style="15"/>
+    <col min="514" max="514" width="11.19921875" style="15" customWidth="1"/>
+    <col min="515" max="515" width="144.796875" style="15" customWidth="1"/>
+    <col min="516" max="769" width="8.796875" style="15"/>
+    <col min="770" max="770" width="11.19921875" style="15" customWidth="1"/>
+    <col min="771" max="771" width="144.796875" style="15" customWidth="1"/>
+    <col min="772" max="1025" width="8.796875" style="15"/>
+    <col min="1026" max="1026" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1027" max="1027" width="144.796875" style="15" customWidth="1"/>
+    <col min="1028" max="1281" width="8.796875" style="15"/>
+    <col min="1282" max="1282" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1283" max="1283" width="144.796875" style="15" customWidth="1"/>
+    <col min="1284" max="1537" width="8.796875" style="15"/>
+    <col min="1538" max="1538" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1539" max="1539" width="144.796875" style="15" customWidth="1"/>
+    <col min="1540" max="1793" width="8.796875" style="15"/>
+    <col min="1794" max="1794" width="11.19921875" style="15" customWidth="1"/>
+    <col min="1795" max="1795" width="144.796875" style="15" customWidth="1"/>
+    <col min="1796" max="2049" width="8.796875" style="15"/>
+    <col min="2050" max="2050" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2051" max="2051" width="144.796875" style="15" customWidth="1"/>
+    <col min="2052" max="2305" width="8.796875" style="15"/>
+    <col min="2306" max="2306" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2307" max="2307" width="144.796875" style="15" customWidth="1"/>
+    <col min="2308" max="2561" width="8.796875" style="15"/>
+    <col min="2562" max="2562" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2563" max="2563" width="144.796875" style="15" customWidth="1"/>
+    <col min="2564" max="2817" width="8.796875" style="15"/>
+    <col min="2818" max="2818" width="11.19921875" style="15" customWidth="1"/>
+    <col min="2819" max="2819" width="144.796875" style="15" customWidth="1"/>
+    <col min="2820" max="3073" width="8.796875" style="15"/>
+    <col min="3074" max="3074" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3075" max="3075" width="144.796875" style="15" customWidth="1"/>
+    <col min="3076" max="3329" width="8.796875" style="15"/>
+    <col min="3330" max="3330" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3331" max="3331" width="144.796875" style="15" customWidth="1"/>
+    <col min="3332" max="3585" width="8.796875" style="15"/>
+    <col min="3586" max="3586" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3587" max="3587" width="144.796875" style="15" customWidth="1"/>
+    <col min="3588" max="3841" width="8.796875" style="15"/>
+    <col min="3842" max="3842" width="11.19921875" style="15" customWidth="1"/>
+    <col min="3843" max="3843" width="144.796875" style="15" customWidth="1"/>
+    <col min="3844" max="4097" width="8.796875" style="15"/>
+    <col min="4098" max="4098" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4099" max="4099" width="144.796875" style="15" customWidth="1"/>
+    <col min="4100" max="4353" width="8.796875" style="15"/>
+    <col min="4354" max="4354" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4355" max="4355" width="144.796875" style="15" customWidth="1"/>
+    <col min="4356" max="4609" width="8.796875" style="15"/>
+    <col min="4610" max="4610" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4611" max="4611" width="144.796875" style="15" customWidth="1"/>
+    <col min="4612" max="4865" width="8.796875" style="15"/>
+    <col min="4866" max="4866" width="11.19921875" style="15" customWidth="1"/>
+    <col min="4867" max="4867" width="144.796875" style="15" customWidth="1"/>
+    <col min="4868" max="5121" width="8.796875" style="15"/>
+    <col min="5122" max="5122" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5123" max="5123" width="144.796875" style="15" customWidth="1"/>
+    <col min="5124" max="5377" width="8.796875" style="15"/>
+    <col min="5378" max="5378" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5379" max="5379" width="144.796875" style="15" customWidth="1"/>
+    <col min="5380" max="5633" width="8.796875" style="15"/>
+    <col min="5634" max="5634" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5635" max="5635" width="144.796875" style="15" customWidth="1"/>
+    <col min="5636" max="5889" width="8.796875" style="15"/>
+    <col min="5890" max="5890" width="11.19921875" style="15" customWidth="1"/>
+    <col min="5891" max="5891" width="144.796875" style="15" customWidth="1"/>
+    <col min="5892" max="6145" width="8.796875" style="15"/>
+    <col min="6146" max="6146" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6147" max="6147" width="144.796875" style="15" customWidth="1"/>
+    <col min="6148" max="6401" width="8.796875" style="15"/>
+    <col min="6402" max="6402" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6403" max="6403" width="144.796875" style="15" customWidth="1"/>
+    <col min="6404" max="6657" width="8.796875" style="15"/>
+    <col min="6658" max="6658" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6659" max="6659" width="144.796875" style="15" customWidth="1"/>
+    <col min="6660" max="6913" width="8.796875" style="15"/>
+    <col min="6914" max="6914" width="11.19921875" style="15" customWidth="1"/>
+    <col min="6915" max="6915" width="144.796875" style="15" customWidth="1"/>
+    <col min="6916" max="7169" width="8.796875" style="15"/>
+    <col min="7170" max="7170" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7171" max="7171" width="144.796875" style="15" customWidth="1"/>
+    <col min="7172" max="7425" width="8.796875" style="15"/>
+    <col min="7426" max="7426" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7427" max="7427" width="144.796875" style="15" customWidth="1"/>
+    <col min="7428" max="7681" width="8.796875" style="15"/>
+    <col min="7682" max="7682" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7683" max="7683" width="144.796875" style="15" customWidth="1"/>
+    <col min="7684" max="7937" width="8.796875" style="15"/>
+    <col min="7938" max="7938" width="11.19921875" style="15" customWidth="1"/>
+    <col min="7939" max="7939" width="144.796875" style="15" customWidth="1"/>
+    <col min="7940" max="8193" width="8.796875" style="15"/>
+    <col min="8194" max="8194" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8195" max="8195" width="144.796875" style="15" customWidth="1"/>
+    <col min="8196" max="8449" width="8.796875" style="15"/>
+    <col min="8450" max="8450" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8451" max="8451" width="144.796875" style="15" customWidth="1"/>
+    <col min="8452" max="8705" width="8.796875" style="15"/>
+    <col min="8706" max="8706" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8707" max="8707" width="144.796875" style="15" customWidth="1"/>
+    <col min="8708" max="8961" width="8.796875" style="15"/>
+    <col min="8962" max="8962" width="11.19921875" style="15" customWidth="1"/>
+    <col min="8963" max="8963" width="144.796875" style="15" customWidth="1"/>
+    <col min="8964" max="9217" width="8.796875" style="15"/>
+    <col min="9218" max="9218" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9219" max="9219" width="144.796875" style="15" customWidth="1"/>
+    <col min="9220" max="9473" width="8.796875" style="15"/>
+    <col min="9474" max="9474" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9475" max="9475" width="144.796875" style="15" customWidth="1"/>
+    <col min="9476" max="9729" width="8.796875" style="15"/>
+    <col min="9730" max="9730" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9731" max="9731" width="144.796875" style="15" customWidth="1"/>
+    <col min="9732" max="9985" width="8.796875" style="15"/>
+    <col min="9986" max="9986" width="11.19921875" style="15" customWidth="1"/>
+    <col min="9987" max="9987" width="144.796875" style="15" customWidth="1"/>
+    <col min="9988" max="10241" width="8.796875" style="15"/>
+    <col min="10242" max="10242" width="11.19921875" style="15" customWidth="1"/>
+    <col min="10243" max="10243" width="144.796875" style="15" customWidth="1"/>
+    <col min="10244" max="10497" width="8.796875" style="15"/>
+    <col min="10498" max="10498" width="11.19921875" style="15" customWidth="1"/>
+    <col min="10499" max="10499" width="144.796875" style="15" customWidth="1"/>
+    <col min="10500" max="10753" width="8.796875" style="15"/>
+    <col min="10754" max="10754" width="11.19921875" style="15" customWidth="1"/>
+    <col min="10755" max="10755" width="144.796875" style="15" customWidth="1"/>
+    <col min="10756" max="11009" width="8.796875" style="15"/>
+    <col min="11010" max="11010" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11011" max="11011" width="144.796875" style="15" customWidth="1"/>
+    <col min="11012" max="11265" width="8.796875" style="15"/>
+    <col min="11266" max="11266" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11267" max="11267" width="144.796875" style="15" customWidth="1"/>
+    <col min="11268" max="11521" width="8.796875" style="15"/>
+    <col min="11522" max="11522" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11523" max="11523" width="144.796875" style="15" customWidth="1"/>
+    <col min="11524" max="11777" width="8.796875" style="15"/>
+    <col min="11778" max="11778" width="11.19921875" style="15" customWidth="1"/>
+    <col min="11779" max="11779" width="144.796875" style="15" customWidth="1"/>
+    <col min="11780" max="12033" width="8.796875" style="15"/>
+    <col min="12034" max="12034" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12035" max="12035" width="144.796875" style="15" customWidth="1"/>
+    <col min="12036" max="12289" width="8.796875" style="15"/>
+    <col min="12290" max="12290" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12291" max="12291" width="144.796875" style="15" customWidth="1"/>
+    <col min="12292" max="12545" width="8.796875" style="15"/>
+    <col min="12546" max="12546" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12547" max="12547" width="144.796875" style="15" customWidth="1"/>
+    <col min="12548" max="12801" width="8.796875" style="15"/>
+    <col min="12802" max="12802" width="11.19921875" style="15" customWidth="1"/>
+    <col min="12803" max="12803" width="144.796875" style="15" customWidth="1"/>
+    <col min="12804" max="13057" width="8.796875" style="15"/>
+    <col min="13058" max="13058" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13059" max="13059" width="144.796875" style="15" customWidth="1"/>
+    <col min="13060" max="13313" width="8.796875" style="15"/>
+    <col min="13314" max="13314" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13315" max="13315" width="144.796875" style="15" customWidth="1"/>
+    <col min="13316" max="13569" width="8.796875" style="15"/>
+    <col min="13570" max="13570" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13571" max="13571" width="144.796875" style="15" customWidth="1"/>
+    <col min="13572" max="13825" width="8.796875" style="15"/>
+    <col min="13826" max="13826" width="11.19921875" style="15" customWidth="1"/>
+    <col min="13827" max="13827" width="144.796875" style="15" customWidth="1"/>
+    <col min="13828" max="14081" width="8.796875" style="15"/>
+    <col min="14082" max="14082" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14083" max="14083" width="144.796875" style="15" customWidth="1"/>
+    <col min="14084" max="14337" width="8.796875" style="15"/>
+    <col min="14338" max="14338" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14339" max="14339" width="144.796875" style="15" customWidth="1"/>
+    <col min="14340" max="14593" width="8.796875" style="15"/>
+    <col min="14594" max="14594" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14595" max="14595" width="144.796875" style="15" customWidth="1"/>
+    <col min="14596" max="14849" width="8.796875" style="15"/>
+    <col min="14850" max="14850" width="11.19921875" style="15" customWidth="1"/>
+    <col min="14851" max="14851" width="144.796875" style="15" customWidth="1"/>
+    <col min="14852" max="15105" width="8.796875" style="15"/>
+    <col min="15106" max="15106" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15107" max="15107" width="144.796875" style="15" customWidth="1"/>
+    <col min="15108" max="15361" width="8.796875" style="15"/>
+    <col min="15362" max="15362" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15363" max="15363" width="144.796875" style="15" customWidth="1"/>
+    <col min="15364" max="15617" width="8.796875" style="15"/>
+    <col min="15618" max="15618" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15619" max="15619" width="144.796875" style="15" customWidth="1"/>
+    <col min="15620" max="15873" width="8.796875" style="15"/>
+    <col min="15874" max="15874" width="11.19921875" style="15" customWidth="1"/>
+    <col min="15875" max="15875" width="144.796875" style="15" customWidth="1"/>
+    <col min="15876" max="16129" width="8.796875" style="15"/>
+    <col min="16130" max="16130" width="11.19921875" style="15" customWidth="1"/>
+    <col min="16131" max="16131" width="144.796875" style="15" customWidth="1"/>
+    <col min="16132" max="16384" width="8.796875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" s="13" customFormat="1" ht="12">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="15">
+    <row r="2" spans="1:3" ht="12">
+      <c r="A2" s="14">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="15">
+    <row r="3" spans="1:3" ht="12">
+      <c r="A3" s="14">
         <v>81281</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A4" s="15">
+      <c r="C3" s="14" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="96">
+      <c r="A4" s="14">
         <v>81286</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="15">
+    <row r="5" spans="1:3" ht="12">
+      <c r="A5" s="14">
         <v>81291</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+    <row r="6" spans="1:3" ht="12">
+      <c r="A6" s="14">
         <v>81296</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A7" s="15">
+    <row r="7" spans="1:3" ht="48">
+      <c r="A7" s="14">
         <v>81301</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="15">
+    <row r="8" spans="1:3" ht="12">
+      <c r="A8" s="14">
         <v>81306</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A9" s="15">
+    <row r="9" spans="1:3" ht="48">
+      <c r="A9" s="14">
         <v>81311</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="15">
+    <row r="10" spans="1:3" ht="108">
+      <c r="A10" s="14">
         <v>81316</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="15">
+    <row r="11" spans="1:3" ht="12">
+      <c r="A11" s="14">
         <v>81321</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="15">
+    <row r="12" spans="1:3" ht="12">
+      <c r="A12" s="14">
         <v>81326</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="15">
+    <row r="13" spans="1:3" ht="12">
+      <c r="A13" s="14">
         <v>81338</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="15">
+    <row r="14" spans="1:3" ht="12">
+      <c r="A14" s="14">
         <v>81331</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="48">
+      <c r="A15" s="14">
+        <v>81336</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="12">
+      <c r="A16" s="14">
+        <v>81341</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A15" s="15">
-        <v>81336</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="15">
-        <v>81341</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="90" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+    <row r="17" spans="1:3" ht="96">
+      <c r="A17" s="15">
         <v>81346</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="15" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+    <row r="18" spans="1:3" ht="12">
+      <c r="A18" s="15">
         <v>81351</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="15">
         <v>81356</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="15" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+    <row r="20" spans="1:3" ht="72">
+      <c r="A20" s="15">
         <v>81361</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="15" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+    <row r="21" spans="1:3" ht="60">
+      <c r="A21" s="15">
         <v>81366</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="C21" s="16" t="s">
+      <c r="C21" s="15" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+    <row r="22" spans="1:3" ht="72">
+      <c r="A22" s="15">
         <v>81371</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="15" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="101.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+    <row r="23" spans="1:3" ht="108">
+      <c r="A23" s="15">
         <v>81376</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="15" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+    <row r="24" spans="1:3" ht="60">
+      <c r="A24" s="15">
         <v>81381</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C24" s="15" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+    <row r="25" spans="1:3" ht="36">
+      <c r="A25" s="15">
         <v>81386</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+    <row r="26" spans="1:3" ht="12">
+      <c r="A26" s="15">
         <v>81398</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+    <row r="27" spans="1:3" ht="36">
+      <c r="A27" s="15">
         <v>81391</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C27" s="16" t="s">
+      <c r="C27" s="15" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="67.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+    <row r="28" spans="1:3" ht="72">
+      <c r="A28" s="15">
         <v>81396</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="15" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
-      <c r="C48" s="16"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
-      <c r="B51" s="16"/>
-      <c r="C51" s="16"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="16"/>
-      <c r="B52" s="16"/>
-      <c r="C52" s="16"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="16"/>
-      <c r="B53" s="16"/>
-      <c r="C53" s="16"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16"/>
-      <c r="C54" s="16"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="16"/>
-      <c r="B55" s="16"/>
-      <c r="C55" s="16"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="16"/>
-      <c r="B56" s="16"/>
-      <c r="C56" s="16"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="16"/>
-      <c r="B57" s="16"/>
-      <c r="C57" s="16"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="16"/>
-      <c r="B60" s="16"/>
-      <c r="C60" s="16"/>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="16"/>
-      <c r="B61" s="16"/>
-      <c r="C61" s="16"/>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="16"/>
-      <c r="B62" s="16"/>
-      <c r="C62" s="16"/>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="16"/>
-      <c r="B63" s="16"/>
-      <c r="C63" s="16"/>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="16"/>
-      <c r="B64" s="16"/>
-      <c r="C64" s="16"/>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="16"/>
-      <c r="B65" s="16"/>
-      <c r="C65" s="16"/>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16"/>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16"/>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="16"/>
-      <c r="B68" s="16"/>
-      <c r="C68" s="16"/>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="16"/>
-      <c r="B69" s="16"/>
-      <c r="C69" s="16"/>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="16"/>
-      <c r="B70" s="16"/>
-      <c r="C70" s="16"/>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="16"/>
-      <c r="B71" s="16"/>
-      <c r="C71" s="16"/>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="16"/>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="16"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="16"/>
-      <c r="B74" s="16"/>
-      <c r="C74" s="16"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="16"/>
-      <c r="B75" s="16"/>
-      <c r="C75" s="16"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="16"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="16"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="16"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="16"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="16"/>
-      <c r="C80" s="16"/>
-    </row>
-    <row r="81" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="82" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="83" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="84" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="85" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="86" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="87" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="88" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="89" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="90" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="91" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="92" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="93" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="94" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="95" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="96" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="97" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="98" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="99" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="100" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="101" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="102" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="103" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="104" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="105" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="106" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="107" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="108" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="109" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="110" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="111" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="112" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="113" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="114" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="115" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="116" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="117" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="118" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="119" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="120" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="121" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="122" s="16" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="15"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="15"/>
+    </row>
+    <row r="33" s="15" customFormat="1"/>
+    <row r="34" s="15" customFormat="1"/>
+    <row r="35" s="15" customFormat="1"/>
+    <row r="36" s="15" customFormat="1"/>
+    <row r="37" s="15" customFormat="1"/>
+    <row r="38" s="15" customFormat="1"/>
+    <row r="39" s="15" customFormat="1"/>
+    <row r="40" s="15" customFormat="1"/>
+    <row r="41" s="15" customFormat="1"/>
+    <row r="42" s="15" customFormat="1"/>
+    <row r="43" s="15" customFormat="1"/>
+    <row r="44" s="15" customFormat="1"/>
+    <row r="45" s="15" customFormat="1"/>
+    <row r="46" s="15" customFormat="1"/>
+    <row r="47" s="15" customFormat="1"/>
+    <row r="48" s="15" customFormat="1"/>
+    <row r="49" s="15" customFormat="1"/>
+    <row r="50" s="15" customFormat="1"/>
+    <row r="51" s="15" customFormat="1"/>
+    <row r="52" s="15" customFormat="1"/>
+    <row r="53" s="15" customFormat="1"/>
+    <row r="54" s="15" customFormat="1"/>
+    <row r="55" s="15" customFormat="1"/>
+    <row r="56" s="15" customFormat="1"/>
+    <row r="57" s="15" customFormat="1"/>
+    <row r="58" s="15" customFormat="1"/>
+    <row r="59" s="15" customFormat="1"/>
+    <row r="60" s="15" customFormat="1"/>
+    <row r="61" s="15" customFormat="1"/>
+    <row r="62" s="15" customFormat="1"/>
+    <row r="63" s="15" customFormat="1"/>
+    <row r="64" s="15" customFormat="1"/>
+    <row r="65" s="15" customFormat="1"/>
+    <row r="66" s="15" customFormat="1"/>
+    <row r="67" s="15" customFormat="1"/>
+    <row r="68" s="15" customFormat="1"/>
+    <row r="69" s="15" customFormat="1"/>
+    <row r="70" s="15" customFormat="1"/>
+    <row r="71" s="15" customFormat="1"/>
+    <row r="72" s="15" customFormat="1"/>
+    <row r="73" s="15" customFormat="1"/>
+    <row r="74" s="15" customFormat="1"/>
+    <row r="75" s="15" customFormat="1"/>
+    <row r="76" s="15" customFormat="1"/>
+    <row r="77" s="15" customFormat="1"/>
+    <row r="78" s="15" customFormat="1"/>
+    <row r="79" s="15" customFormat="1"/>
+    <row r="80" s="15" customFormat="1"/>
+    <row r="81" s="15" customFormat="1"/>
+    <row r="82" s="15" customFormat="1"/>
+    <row r="83" s="15" customFormat="1"/>
+    <row r="84" s="15" customFormat="1"/>
+    <row r="85" s="15" customFormat="1"/>
+    <row r="86" s="15" customFormat="1"/>
+    <row r="87" s="15" customFormat="1"/>
+    <row r="88" s="15" customFormat="1"/>
+    <row r="89" s="15" customFormat="1"/>
+    <row r="90" s="15" customFormat="1"/>
+    <row r="91" s="15" customFormat="1"/>
+    <row r="92" s="15" customFormat="1"/>
+    <row r="93" s="15" customFormat="1"/>
+    <row r="94" s="15" customFormat="1"/>
+    <row r="95" s="15" customFormat="1"/>
+    <row r="96" s="15" customFormat="1"/>
+    <row r="97" s="15" customFormat="1"/>
+    <row r="98" s="15" customFormat="1"/>
+    <row r="99" s="15" customFormat="1"/>
+    <row r="100" s="15" customFormat="1"/>
+    <row r="101" s="15" customFormat="1"/>
+    <row r="102" s="15" customFormat="1"/>
+    <row r="103" s="15" customFormat="1"/>
+    <row r="104" s="15" customFormat="1"/>
+    <row r="105" s="15" customFormat="1"/>
+    <row r="106" s="15" customFormat="1"/>
+    <row r="107" s="15" customFormat="1"/>
+    <row r="108" s="15" customFormat="1"/>
+    <row r="109" s="15" customFormat="1"/>
+    <row r="110" s="15" customFormat="1"/>
+    <row r="111" s="15" customFormat="1"/>
+    <row r="112" s="15" customFormat="1"/>
+    <row r="113" s="15" customFormat="1"/>
+    <row r="114" s="15" customFormat="1"/>
+    <row r="115" s="15" customFormat="1"/>
+    <row r="116" s="15" customFormat="1"/>
+    <row r="117" s="15" customFormat="1"/>
+    <row r="118" s="15" customFormat="1"/>
+    <row r="119" s="15" customFormat="1"/>
+    <row r="120" s="15" customFormat="1"/>
+    <row r="121" s="15" customFormat="1"/>
+    <row r="122" s="15" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -3680,7 +3483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3688,20 +3491,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="6" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="73.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.19921875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.3984375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="10.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.796875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="73.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="5" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -3727,7 +3530,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>81281</v>
       </c>
@@ -3750,10 +3553,10 @@
         <v>15623</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>81286</v>
       </c>
@@ -3779,7 +3582,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>81291</v>
       </c>
@@ -3805,7 +3608,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>81296</v>
       </c>
@@ -3831,7 +3634,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>81301</v>
       </c>
@@ -3857,7 +3660,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>81306</v>
       </c>
@@ -3883,7 +3686,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>81311</v>
       </c>
@@ -3909,7 +3712,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>81316</v>
       </c>
@@ -3935,7 +3738,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>81321</v>
       </c>
@@ -3961,7 +3764,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>81326</v>
       </c>
@@ -3987,7 +3790,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>81338</v>
       </c>
@@ -4013,7 +3816,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>81331</v>
       </c>
@@ -4039,7 +3842,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>81336</v>
       </c>
@@ -4065,7 +3868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>81341</v>
       </c>
@@ -4088,10 +3891,10 @@
         <v>5930</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>81346</v>
       </c>
@@ -4117,7 +3920,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>81351</v>
       </c>
@@ -4143,7 +3946,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>81356</v>
       </c>
@@ -4169,7 +3972,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>81361</v>
       </c>
@@ -4195,7 +3998,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>81366</v>
       </c>
@@ -4221,7 +4024,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>81371</v>
       </c>
@@ -4247,7 +4050,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>81376</v>
       </c>
@@ -4273,7 +4076,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>81381</v>
       </c>
@@ -4299,7 +4102,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>81386</v>
       </c>
@@ -4325,7 +4128,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>81398</v>
       </c>
@@ -4351,7 +4154,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>81391</v>
       </c>
@@ -4377,7 +4180,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>81396</v>
       </c>
@@ -4403,37 +4206,37 @@
         <v>130</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8">
       <c r="E28" s="7"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8">
       <c r="E29" s="7"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8">
       <c r="E30" s="7"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8">
       <c r="E31" s="7"/>
     </row>
-    <row r="35" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:7" s="1" customFormat="1">
       <c r="D35" s="9"/>
       <c r="E35"/>
       <c r="F35"/>
       <c r="G35" s="9"/>
     </row>
-    <row r="36" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:7" s="1" customFormat="1">
       <c r="D36" s="9"/>
       <c r="E36"/>
       <c r="F36"/>
       <c r="G36" s="9"/>
     </row>
-    <row r="37" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:7" s="1" customFormat="1">
       <c r="D37" s="9"/>
       <c r="E37"/>
       <c r="F37"/>
       <c r="G37" s="9"/>
     </row>
-    <row r="38" spans="4:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:7" s="1" customFormat="1">
       <c r="D38" s="9"/>
       <c r="E38"/>
       <c r="F38"/>
@@ -4446,24 +4249,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.59765625" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4471,7 +4274,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>31</v>
       </c>
@@ -4479,7 +4282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
@@ -4487,7 +4290,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>35</v>
       </c>
@@ -4495,7 +4298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -4503,7 +4306,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
@@ -4511,7 +4314,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -4519,7 +4322,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -4527,7 +4330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -4535,7 +4338,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -4543,7 +4346,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -4551,7 +4354,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>50</v>
       </c>
@@ -4559,7 +4362,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>52</v>
       </c>
@@ -4567,7 +4370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>54</v>
       </c>
